--- a/src/predicciones/holt_winters/producto_123.xlsx
+++ b/src/predicciones/holt_winters/producto_123.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,13 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,46 +404,761 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44934</v>
       </c>
       <c r="B2">
-        <v>2.152351957157095</v>
+        <v>0.9651699183221187</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44940</v>
       </c>
       <c r="B3">
-        <v>2.058834491225949</v>
+        <v>1.979524116498106</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44966</v>
       </c>
       <c r="B4">
-        <v>2.475123318349173</v>
+        <v>0.9858664257044416</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44970</v>
       </c>
       <c r="B5">
-        <v>1.589489150873377</v>
+        <v>1.034381054441431</v>
       </c>
       <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>44977</v>
+      </c>
+      <c r="B6">
+        <v>1.049350648298883</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>44980</v>
+      </c>
+      <c r="B7">
+        <v>1.053001124836742</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>44989</v>
+      </c>
+      <c r="B8">
+        <v>0.9511426640336474</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>44994</v>
+      </c>
+      <c r="B9">
+        <v>1.014069261022278</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>44999</v>
+      </c>
+      <c r="B10">
+        <v>2.028423459198266</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>45013</v>
+      </c>
+      <c r="B11">
+        <v>1.034765768404601</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>45016</v>
+      </c>
+      <c r="B12">
+        <v>1.083280397141591</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>45022</v>
+      </c>
+      <c r="B13">
+        <v>1.098249990999043</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>45034</v>
+      </c>
+      <c r="B14">
+        <v>1.101900467536902</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>45036</v>
+      </c>
+      <c r="B15">
+        <v>1.000042006733807</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>45040</v>
+      </c>
+      <c r="B16">
+        <v>1.062968603722438</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>45041</v>
+      </c>
+      <c r="B17">
+        <v>2.077322801898426</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>45050</v>
+      </c>
+      <c r="B18">
+        <v>1.083665111104761</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>45061</v>
+      </c>
+      <c r="B19">
+        <v>1.13217973984175</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>45063</v>
+      </c>
+      <c r="B20">
+        <v>1.147149333699202</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>45078</v>
+      </c>
+      <c r="B21">
+        <v>1.150799810237062</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>45095</v>
+      </c>
+      <c r="B22">
+        <v>1.048941349433967</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>45114</v>
+      </c>
+      <c r="B23">
+        <v>1.111867946422598</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B24">
+        <v>2.126222144598585</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>45121</v>
+      </c>
+      <c r="B25">
+        <v>1.13256445380492</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>45134</v>
+      </c>
+      <c r="B26">
+        <v>1.18107908254191</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>45135</v>
+      </c>
+      <c r="B27">
+        <v>1.196048676399362</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>45140</v>
+      </c>
+      <c r="B28">
+        <v>1.199699152937221</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>45149</v>
+      </c>
+      <c r="B29">
+        <v>1.097840692134127</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>45152</v>
+      </c>
+      <c r="B30">
+        <v>1.160767289122757</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>45156</v>
+      </c>
+      <c r="B31">
+        <v>2.175121487298744</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>45158</v>
+      </c>
+      <c r="B32">
+        <v>1.18146379650508</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>45160</v>
+      </c>
+      <c r="B33">
+        <v>1.22997842524207</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>45162</v>
+      </c>
+      <c r="B34">
+        <v>1.244948019099521</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>45165</v>
+      </c>
+      <c r="B35">
+        <v>1.248598495637381</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>45168</v>
+      </c>
+      <c r="B36">
+        <v>1.146740034834286</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>45172</v>
+      </c>
+      <c r="B37">
+        <v>1.209666631822917</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B38">
+        <v>2.224020829998905</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>45181</v>
+      </c>
+      <c r="B39">
+        <v>1.23036313920524</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>45190</v>
+      </c>
+      <c r="B40">
+        <v>1.278877767942229</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>45193</v>
+      </c>
+      <c r="B41">
+        <v>1.293847361799681</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>45196</v>
+      </c>
+      <c r="B42">
+        <v>1.297497838337541</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>45197</v>
+      </c>
+      <c r="B43">
+        <v>1.195639377534446</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>45199</v>
+      </c>
+      <c r="B44">
+        <v>1.258565974523077</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>45205</v>
+      </c>
+      <c r="B45">
+        <v>2.272920172699064</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>45206</v>
+      </c>
+      <c r="B46">
+        <v>1.279262481905399</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>45215</v>
+      </c>
+      <c r="B47">
+        <v>1.327777110642389</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>45216</v>
+      </c>
+      <c r="B48">
+        <v>1.342746704499841</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>45217</v>
+      </c>
+      <c r="B49">
+        <v>1.3463971810377</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>45222</v>
+      </c>
+      <c r="B50">
+        <v>1.244538720234605</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>45238</v>
+      </c>
+      <c r="B51">
+        <v>1.307465317223236</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>45242</v>
+      </c>
+      <c r="B52">
+        <v>2.321819515399223</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>45246</v>
+      </c>
+      <c r="B53">
+        <v>1.328161824605559</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>45247</v>
+      </c>
+      <c r="B54">
+        <v>1.376676453342548</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>45255</v>
+      </c>
+      <c r="B55">
+        <v>1.391646047200001</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>45263</v>
+      </c>
+      <c r="B56">
+        <v>1.39529652373786</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>45269</v>
+      </c>
+      <c r="B57">
+        <v>1.293438062934765</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>45278</v>
+      </c>
+      <c r="B58">
+        <v>1.356364659923396</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>45279</v>
+      </c>
+      <c r="B59">
+        <v>2.370718858099383</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>45281</v>
+      </c>
+      <c r="B60">
+        <v>1.377061167305719</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>45283</v>
+      </c>
+      <c r="B61">
+        <v>1.425575796042708</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>45287</v>
+      </c>
+      <c r="B62">
+        <v>1.44054538990016</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>45288</v>
+      </c>
+      <c r="B63">
+        <v>1.444195866438019</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2">
+        <v>45290</v>
+      </c>
+      <c r="B64">
+        <v>1.342337405634925</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2">
+        <v>45300</v>
+      </c>
+      <c r="B65">
+        <v>1.405264002623556</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
+        <v>45311</v>
+      </c>
+      <c r="B66">
+        <v>2.419618200799543</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2">
+        <v>45314</v>
+      </c>
+      <c r="B67">
+        <v>1.425960510005878</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2">
+        <v>45326</v>
+      </c>
+      <c r="B68">
+        <v>1.474475138742868</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2">
+        <v>45328</v>
+      </c>
+      <c r="B69">
+        <v>1.48944473260032</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2">
+        <v>45329</v>
+      </c>
+      <c r="B70">
+        <v>1.493095209138179</v>
+      </c>
+      <c r="C70">
         <v>2</v>
       </c>
     </row>
